--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anh.lq\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE5BB91-6DB4-470D-A176-E41854F85352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79331961-C214-4638-AED7-A1AF70764522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25050" yWindow="1950" windowWidth="17280" windowHeight="9420" xr2:uid="{1B8F9005-DA1B-4D7A-91B4-192B277BD77D}"/>
+    <workbookView xWindow="-24615" yWindow="2385" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{1B8F9005-DA1B-4D7A-91B4-192B277BD77D}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>publicAddress</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>0x425Cc5Ff98e4f6fD2cC13D097E1EC09c8521E6Ea</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>isETH</t>
   </si>
 </sst>
 </file>
@@ -126,22 +135,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{010CCDB0-A0A6-4B16-9C0A-941E9A04F8CE}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{010CCDB0-A0A6-4B16-9C0A-941E9A04F8CE}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{010CCDB0-A0A6-4B16-9C0A-941E9A04F8CE}" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{010CCDB0-A0A6-4B16-9C0A-941E9A04F8CE}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{EBD8103F-F1CD-42AB-BFAC-5435E6F6A321}" name="publicAddress"/>
     <tableColumn id="2" xr3:uid="{85721608-9F79-4BA4-91F0-288D91A2D939}" name="amount"/>
+    <tableColumn id="3" xr3:uid="{57E4B7EC-38F2-4BBD-95F3-8FE7427FF74F}" name="id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{34BCBCB9-02DF-488B-96BA-18EA78233ADA}" name="Table2" displayName="Table2" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{34BCBCB9-02DF-488B-96BA-18EA78233ADA}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{34BCBCB9-02DF-488B-96BA-18EA78233ADA}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{34BCBCB9-02DF-488B-96BA-18EA78233ADA}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4054FF59-972D-442C-A2EF-EA34042C59E7}" name="attribute"/>
     <tableColumn id="2" xr3:uid="{F72C2258-676E-49AC-953E-E0D76BEC9734}" name="type"/>
+    <tableColumn id="3" xr3:uid="{BC509FBD-E635-4891-AEAF-BE56B4E9DFF4}" name="isETH"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -444,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B19AF83-4B6A-4EA9-8A58-DF8FC42D5D40}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -456,60 +467,81 @@
     <col min="2" max="2" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
         <v>100</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -523,10 +555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCF8A21-1D4F-44DD-83FB-8EABB7D20141}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -534,28 +566,48 @@
     <col min="1" max="1" width="9.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
